--- a/메소드.xlsx
+++ b/메소드.xlsx
@@ -8,34 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\OneDrive\바탕 화면\취업\6.현장업무공부\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC5BFBF-BF9C-4907-B09E-A2426AF728A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62959576-6704-41D7-BD26-D01516B3AD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="16" xr2:uid="{C12B5F0D-30A6-4E20-A198-54E975DF5790}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{C12B5F0D-30A6-4E20-A198-54E975DF5790}"/>
   </bookViews>
   <sheets>
     <sheet name="규칙" sheetId="9" r:id="rId1"/>
     <sheet name="데이터타입" sheetId="10" r:id="rId2"/>
     <sheet name="If" sheetId="4" r:id="rId3"/>
-    <sheet name="Switch" sheetId="13" r:id="rId4"/>
-    <sheet name="While" sheetId="5" r:id="rId5"/>
-    <sheet name="For" sheetId="6" r:id="rId6"/>
-    <sheet name="비교판별구문" sheetId="8" r:id="rId7"/>
-    <sheet name="메소드란" sheetId="1" r:id="rId8"/>
-    <sheet name="배열" sheetId="12" r:id="rId9"/>
-    <sheet name="콜렉션(리스트,맵)" sheetId="2" r:id="rId10"/>
-    <sheet name="접근제어자" sheetId="3" r:id="rId11"/>
-    <sheet name="스프링개요" sheetId="14" r:id="rId12"/>
-    <sheet name="DI(스프링사용 X)" sheetId="15" r:id="rId13"/>
-    <sheet name="스프링 MVC 예제1" sheetId="16" r:id="rId14"/>
-    <sheet name="스프링예제2" sheetId="17" r:id="rId15"/>
-    <sheet name="HTML" sheetId="18" r:id="rId16"/>
-    <sheet name="SQL" sheetId="19" r:id="rId17"/>
-    <sheet name="SQL (CRUD)" sheetId="20" r:id="rId18"/>
-    <sheet name="SQL(추가)" sheetId="21" r:id="rId19"/>
-    <sheet name="리눅스" sheetId="22" r:id="rId20"/>
+    <sheet name="try・catch" sheetId="23" r:id="rId4"/>
+    <sheet name="Switch" sheetId="13" r:id="rId5"/>
+    <sheet name="While" sheetId="5" r:id="rId6"/>
+    <sheet name="For" sheetId="6" r:id="rId7"/>
+    <sheet name="비교판별구문" sheetId="8" r:id="rId8"/>
+    <sheet name="메소드란" sheetId="1" r:id="rId9"/>
+    <sheet name="배열" sheetId="12" r:id="rId10"/>
+    <sheet name="콜렉션(리스트,맵)" sheetId="2" r:id="rId11"/>
+    <sheet name="접근제어자" sheetId="3" r:id="rId12"/>
+    <sheet name="스프링개요" sheetId="14" r:id="rId13"/>
+    <sheet name="DI(스프링사용 X)" sheetId="15" r:id="rId14"/>
+    <sheet name="스프링 MVC 예제1" sheetId="16" r:id="rId15"/>
+    <sheet name="스프링예제2" sheetId="17" r:id="rId16"/>
+    <sheet name="HTML" sheetId="18" r:id="rId17"/>
+    <sheet name="SQL" sheetId="19" r:id="rId18"/>
+    <sheet name="SQL (CRUD)" sheetId="20" r:id="rId19"/>
+    <sheet name="SQL(추가)" sheetId="21" r:id="rId20"/>
+    <sheet name="리눅스" sheetId="22" r:id="rId21"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
   </externalReferences>
   <definedNames>
     <definedName name="chiki">[1]選択リスト一覧!$K$11:$K$17</definedName>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="669">
   <si>
     <t>●</t>
     <phoneticPr fontId="1"/>
@@ -4527,12 +4528,38 @@
     <t>기본은 CLI형식으로 사용한다.</t>
     <phoneticPr fontId="36"/>
   </si>
+  <si>
+    <r>
+      <t>try</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="BIZ UDPゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>catch</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="48">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4862,6 +4889,13 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="10">
@@ -5573,51 +5607,6 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5645,16 +5634,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5666,6 +5655,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5675,22 +5679,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5732,14 +5721,59 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5829,6 +5863,133 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9102A7C-F5F2-496D-94AE-77B971495DCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="333375" y="628650"/>
+          <a:ext cx="6257925" cy="5381625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C40D563-B989-4C55-95C1-FC7715035E65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7191375" y="628650"/>
+          <a:ext cx="5743575" cy="7724775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6338,7 +6499,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6407,7 +6568,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6885,7 +7046,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8628,7 +8789,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11767,7 +11928,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11938,7 +12099,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -12380,7 +12541,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -13396,7 +13557,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -14365,6 +14526,72 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EDD59A5-0A2A-44CC-BC28-970B452A8D60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="361950" y="628650"/>
+          <a:ext cx="8277225" cy="6105525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>25</xdr:row>
@@ -14421,7 +14648,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -14898,7 +15125,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -15513,7 +15740,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -15640,7 +15867,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15762,133 +15989,6 @@
         </xdr:style>
       </xdr:cxnSp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9102A7C-F5F2-496D-94AE-77B971495DCC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="333375" y="628650"/>
-          <a:ext cx="6257925" cy="5381625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C40D563-B989-4C55-95C1-FC7715035E65}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7191375" y="628650"/>
-          <a:ext cx="5743575" cy="7724775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16305,30 +16405,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
     </row>
     <row r="5" spans="1:10" ht="17.25">
       <c r="B5" s="40" t="s">
@@ -16580,6 +16680,55 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCFAD99-9EC8-4BF2-9A98-E16388EAF18B}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B88E869-6141-4729-9A63-B7FF89286A75}">
   <dimension ref="A1:T69"/>
   <sheetViews>
@@ -16598,21 +16747,21 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="1"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
       <c r="G2" s="2" t="s">
         <v>36</v>
       </c>
@@ -16639,40 +16788,40 @@
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
-      <c r="Q4" s="141" t="s">
+      <c r="Q4" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="142"/>
-      <c r="S4" s="142"/>
-      <c r="T4" s="143"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="115"/>
     </row>
     <row r="5" spans="1:20">
       <c r="K5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N5" s="130" t="s">
+      <c r="N5" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="130"/>
-      <c r="Q5" s="130" t="s">
+      <c r="O5" s="116"/>
+      <c r="Q5" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="130" t="s">
+      <c r="R5" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="S5" s="132" t="s">
+      <c r="S5" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="T5" s="133"/>
+      <c r="T5" s="118"/>
     </row>
     <row r="6" spans="1:20">
       <c r="K6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
       <c r="S6" s="12">
         <v>0</v>
       </c>
@@ -16681,10 +16830,10 @@
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="N7" s="130"/>
-      <c r="O7" s="130"/>
-      <c r="Q7" s="134"/>
-      <c r="R7" s="134"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
       <c r="S7" s="12">
         <v>1</v>
       </c>
@@ -16693,10 +16842,10 @@
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="N8" s="130"/>
-      <c r="O8" s="130"/>
-      <c r="Q8" s="134"/>
-      <c r="R8" s="134"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
       <c r="S8" s="12">
         <v>2</v>
       </c>
@@ -16705,22 +16854,22 @@
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="N9" s="130"/>
-      <c r="O9" s="130"/>
-      <c r="Q9" s="134"/>
-      <c r="R9" s="130" t="s">
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="S9" s="132" t="s">
+      <c r="S9" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="T9" s="133"/>
+      <c r="T9" s="118"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="N10" s="130"/>
-      <c r="O10" s="130"/>
-      <c r="Q10" s="134"/>
-      <c r="R10" s="134"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
       <c r="S10" s="12">
         <v>0</v>
       </c>
@@ -16729,10 +16878,10 @@
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="N11" s="130"/>
-      <c r="O11" s="130"/>
-      <c r="Q11" s="134"/>
-      <c r="R11" s="134"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="116"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
       <c r="S11" s="12">
         <v>1</v>
       </c>
@@ -16741,10 +16890,10 @@
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="Q12" s="134"/>
-      <c r="R12" s="134"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="116"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="119"/>
       <c r="S12" s="12">
         <v>2</v>
       </c>
@@ -16753,22 +16902,22 @@
       </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="N13" s="130"/>
-      <c r="O13" s="130"/>
-      <c r="Q13" s="134"/>
-      <c r="R13" s="130" t="s">
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="Q13" s="119"/>
+      <c r="R13" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="S13" s="132" t="s">
+      <c r="S13" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="T13" s="133"/>
+      <c r="T13" s="118"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="N14" s="130"/>
-      <c r="O14" s="130"/>
-      <c r="Q14" s="134"/>
-      <c r="R14" s="134"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="116"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="119"/>
       <c r="S14" s="12">
         <v>0</v>
       </c>
@@ -16777,10 +16926,10 @@
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="N15" s="130"/>
-      <c r="O15" s="130"/>
-      <c r="Q15" s="134"/>
-      <c r="R15" s="134"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="116"/>
+      <c r="Q15" s="119"/>
+      <c r="R15" s="119"/>
       <c r="S15" s="12">
         <v>1</v>
       </c>
@@ -16796,10 +16945,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="Q16" s="134"/>
-      <c r="R16" s="134"/>
+      <c r="N16" s="116"/>
+      <c r="O16" s="116"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="119"/>
       <c r="S16" s="12">
         <v>2</v>
       </c>
@@ -16821,23 +16970,23 @@
       <c r="L20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M20" s="129" t="s">
+      <c r="M20" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="N20" s="129"/>
+      <c r="N20" s="121"/>
     </row>
     <row r="21" spans="12:16">
       <c r="L21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M21" s="130" t="s">
+      <c r="M21" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="N21" s="131"/>
-      <c r="O21" s="139" t="s">
+      <c r="N21" s="122"/>
+      <c r="O21" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="P21" s="140"/>
+      <c r="P21" s="124"/>
     </row>
     <row r="22" spans="12:16">
       <c r="O22" s="12">
@@ -16867,23 +17016,23 @@
       <c r="L26" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M26" s="129" t="s">
+      <c r="M26" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="N26" s="129"/>
+      <c r="N26" s="121"/>
     </row>
     <row r="27" spans="12:16">
       <c r="L27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M27" s="130" t="s">
+      <c r="M27" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="N27" s="131"/>
-      <c r="O27" s="139" t="s">
+      <c r="N27" s="122"/>
+      <c r="O27" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="P27" s="140"/>
+      <c r="P27" s="124"/>
     </row>
     <row r="28" spans="12:16">
       <c r="O28" s="12">
@@ -16913,23 +17062,23 @@
       <c r="L33" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M33" s="129" t="s">
+      <c r="M33" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="N33" s="129"/>
+      <c r="N33" s="121"/>
     </row>
     <row r="34" spans="1:18">
       <c r="L34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M34" s="130" t="s">
+      <c r="M34" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="N34" s="131"/>
-      <c r="O34" s="139" t="s">
+      <c r="N34" s="122"/>
+      <c r="O34" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="P34" s="140"/>
+      <c r="P34" s="124"/>
     </row>
     <row r="35" spans="1:18">
       <c r="O35" s="12">
@@ -16978,46 +17127,46 @@
       <c r="N43" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="O43" s="138" t="s">
+      <c r="O43" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="P43" s="138"/>
+      <c r="P43" s="120"/>
     </row>
     <row r="44" spans="1:18">
-      <c r="N44" s="130" t="s">
+      <c r="N44" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="O44" s="130" t="s">
+      <c r="O44" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="P44" s="130"/>
-      <c r="Q44" s="130" t="s">
+      <c r="P44" s="116"/>
+      <c r="Q44" s="116" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:18">
-      <c r="N45" s="130"/>
-      <c r="O45" s="130"/>
-      <c r="P45" s="130"/>
-      <c r="Q45" s="130"/>
+      <c r="N45" s="116"/>
+      <c r="O45" s="116"/>
+      <c r="P45" s="116"/>
+      <c r="Q45" s="116"/>
     </row>
     <row r="46" spans="1:18">
-      <c r="N46" s="130" t="s">
+      <c r="N46" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="130" t="s">
+      <c r="O46" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="P46" s="130"/>
-      <c r="Q46" s="132" t="s">
+      <c r="P46" s="116"/>
+      <c r="Q46" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="R46" s="133"/>
+      <c r="R46" s="118"/>
     </row>
     <row r="47" spans="1:18">
-      <c r="N47" s="130"/>
-      <c r="O47" s="130"/>
-      <c r="P47" s="130"/>
+      <c r="N47" s="116"/>
+      <c r="O47" s="116"/>
+      <c r="P47" s="116"/>
       <c r="Q47" s="12">
         <v>0</v>
       </c>
@@ -17026,9 +17175,9 @@
       </c>
     </row>
     <row r="48" spans="1:18">
-      <c r="N48" s="130"/>
-      <c r="O48" s="130"/>
-      <c r="P48" s="130"/>
+      <c r="N48" s="116"/>
+      <c r="O48" s="116"/>
+      <c r="P48" s="116"/>
       <c r="Q48" s="12">
         <v>1</v>
       </c>
@@ -17037,9 +17186,9 @@
       </c>
     </row>
     <row r="49" spans="14:20">
-      <c r="N49" s="130"/>
-      <c r="O49" s="130"/>
-      <c r="P49" s="130"/>
+      <c r="N49" s="116"/>
+      <c r="O49" s="116"/>
+      <c r="P49" s="116"/>
       <c r="Q49" s="12">
         <v>2</v>
       </c>
@@ -17048,18 +17197,18 @@
       </c>
     </row>
     <row r="50" spans="14:20">
-      <c r="N50" s="130"/>
-      <c r="O50" s="130"/>
-      <c r="P50" s="130"/>
-      <c r="Q50" s="132" t="s">
+      <c r="N50" s="116"/>
+      <c r="O50" s="116"/>
+      <c r="P50" s="116"/>
+      <c r="Q50" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="R50" s="133"/>
+      <c r="R50" s="118"/>
     </row>
     <row r="51" spans="14:20">
-      <c r="N51" s="130"/>
-      <c r="O51" s="130"/>
-      <c r="P51" s="130"/>
+      <c r="N51" s="116"/>
+      <c r="O51" s="116"/>
+      <c r="P51" s="116"/>
       <c r="Q51" s="12">
         <v>0</v>
       </c>
@@ -17068,9 +17217,9 @@
       </c>
     </row>
     <row r="52" spans="14:20">
-      <c r="N52" s="130"/>
-      <c r="O52" s="130"/>
-      <c r="P52" s="130"/>
+      <c r="N52" s="116"/>
+      <c r="O52" s="116"/>
+      <c r="P52" s="116"/>
       <c r="Q52" s="12">
         <v>1</v>
       </c>
@@ -17079,9 +17228,9 @@
       </c>
     </row>
     <row r="53" spans="14:20">
-      <c r="N53" s="130"/>
-      <c r="O53" s="130"/>
-      <c r="P53" s="130"/>
+      <c r="N53" s="116"/>
+      <c r="O53" s="116"/>
+      <c r="P53" s="116"/>
       <c r="Q53" s="12">
         <v>2</v>
       </c>
@@ -17090,18 +17239,18 @@
       </c>
     </row>
     <row r="54" spans="14:20">
-      <c r="N54" s="130"/>
-      <c r="O54" s="130"/>
-      <c r="P54" s="130"/>
-      <c r="Q54" s="132" t="s">
+      <c r="N54" s="116"/>
+      <c r="O54" s="116"/>
+      <c r="P54" s="116"/>
+      <c r="Q54" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="R54" s="133"/>
+      <c r="R54" s="118"/>
     </row>
     <row r="55" spans="14:20">
-      <c r="N55" s="130"/>
-      <c r="O55" s="130"/>
-      <c r="P55" s="130"/>
+      <c r="N55" s="116"/>
+      <c r="O55" s="116"/>
+      <c r="P55" s="116"/>
       <c r="Q55" s="12">
         <v>0</v>
       </c>
@@ -17110,9 +17259,9 @@
       </c>
     </row>
     <row r="56" spans="14:20">
-      <c r="N56" s="130"/>
-      <c r="O56" s="130"/>
-      <c r="P56" s="130"/>
+      <c r="N56" s="116"/>
+      <c r="O56" s="116"/>
+      <c r="P56" s="116"/>
       <c r="Q56" s="12">
         <v>1</v>
       </c>
@@ -17121,9 +17270,9 @@
       </c>
     </row>
     <row r="57" spans="14:20">
-      <c r="N57" s="130"/>
-      <c r="O57" s="130"/>
-      <c r="P57" s="130"/>
+      <c r="N57" s="116"/>
+      <c r="O57" s="116"/>
+      <c r="P57" s="116"/>
       <c r="Q57" s="12">
         <v>2</v>
       </c>
@@ -17132,30 +17281,30 @@
       </c>
     </row>
     <row r="58" spans="14:20">
-      <c r="N58" s="135" t="s">
+      <c r="N58" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="130" t="s">
+      <c r="O58" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="P58" s="130"/>
-      <c r="Q58" s="130" t="s">
+      <c r="P58" s="116"/>
+      <c r="Q58" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="R58" s="130" t="s">
+      <c r="R58" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="S58" s="132" t="s">
+      <c r="S58" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="T58" s="133"/>
+      <c r="T58" s="118"/>
     </row>
     <row r="59" spans="14:20">
-      <c r="N59" s="136"/>
-      <c r="O59" s="130"/>
-      <c r="P59" s="130"/>
-      <c r="Q59" s="134"/>
-      <c r="R59" s="134"/>
+      <c r="N59" s="126"/>
+      <c r="O59" s="116"/>
+      <c r="P59" s="116"/>
+      <c r="Q59" s="119"/>
+      <c r="R59" s="119"/>
       <c r="S59" s="12">
         <v>0</v>
       </c>
@@ -17164,11 +17313,11 @@
       </c>
     </row>
     <row r="60" spans="14:20">
-      <c r="N60" s="136"/>
-      <c r="O60" s="130"/>
-      <c r="P60" s="130"/>
-      <c r="Q60" s="134"/>
-      <c r="R60" s="134"/>
+      <c r="N60" s="126"/>
+      <c r="O60" s="116"/>
+      <c r="P60" s="116"/>
+      <c r="Q60" s="119"/>
+      <c r="R60" s="119"/>
       <c r="S60" s="12">
         <v>1</v>
       </c>
@@ -17177,11 +17326,11 @@
       </c>
     </row>
     <row r="61" spans="14:20">
-      <c r="N61" s="136"/>
-      <c r="O61" s="130"/>
-      <c r="P61" s="130"/>
-      <c r="Q61" s="134"/>
-      <c r="R61" s="134"/>
+      <c r="N61" s="126"/>
+      <c r="O61" s="116"/>
+      <c r="P61" s="116"/>
+      <c r="Q61" s="119"/>
+      <c r="R61" s="119"/>
       <c r="S61" s="12">
         <v>2</v>
       </c>
@@ -17190,24 +17339,24 @@
       </c>
     </row>
     <row r="62" spans="14:20">
-      <c r="N62" s="136"/>
-      <c r="O62" s="130"/>
-      <c r="P62" s="130"/>
-      <c r="Q62" s="134"/>
-      <c r="R62" s="130" t="s">
+      <c r="N62" s="126"/>
+      <c r="O62" s="116"/>
+      <c r="P62" s="116"/>
+      <c r="Q62" s="119"/>
+      <c r="R62" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="S62" s="132" t="s">
+      <c r="S62" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="T62" s="133"/>
+      <c r="T62" s="118"/>
     </row>
     <row r="63" spans="14:20">
-      <c r="N63" s="136"/>
-      <c r="O63" s="130"/>
-      <c r="P63" s="130"/>
-      <c r="Q63" s="134"/>
-      <c r="R63" s="134"/>
+      <c r="N63" s="126"/>
+      <c r="O63" s="116"/>
+      <c r="P63" s="116"/>
+      <c r="Q63" s="119"/>
+      <c r="R63" s="119"/>
       <c r="S63" s="12">
         <v>0</v>
       </c>
@@ -17216,11 +17365,11 @@
       </c>
     </row>
     <row r="64" spans="14:20">
-      <c r="N64" s="136"/>
-      <c r="O64" s="130"/>
-      <c r="P64" s="130"/>
-      <c r="Q64" s="134"/>
-      <c r="R64" s="134"/>
+      <c r="N64" s="126"/>
+      <c r="O64" s="116"/>
+      <c r="P64" s="116"/>
+      <c r="Q64" s="119"/>
+      <c r="R64" s="119"/>
       <c r="S64" s="12">
         <v>1</v>
       </c>
@@ -17229,11 +17378,11 @@
       </c>
     </row>
     <row r="65" spans="14:20">
-      <c r="N65" s="136"/>
-      <c r="O65" s="130"/>
-      <c r="P65" s="130"/>
-      <c r="Q65" s="134"/>
-      <c r="R65" s="134"/>
+      <c r="N65" s="126"/>
+      <c r="O65" s="116"/>
+      <c r="P65" s="116"/>
+      <c r="Q65" s="119"/>
+      <c r="R65" s="119"/>
       <c r="S65" s="12">
         <v>2</v>
       </c>
@@ -17242,24 +17391,24 @@
       </c>
     </row>
     <row r="66" spans="14:20">
-      <c r="N66" s="136"/>
-      <c r="O66" s="130"/>
-      <c r="P66" s="130"/>
-      <c r="Q66" s="134"/>
-      <c r="R66" s="130" t="s">
+      <c r="N66" s="126"/>
+      <c r="O66" s="116"/>
+      <c r="P66" s="116"/>
+      <c r="Q66" s="119"/>
+      <c r="R66" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="S66" s="132" t="s">
+      <c r="S66" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="T66" s="133"/>
+      <c r="T66" s="118"/>
     </row>
     <row r="67" spans="14:20">
-      <c r="N67" s="136"/>
-      <c r="O67" s="130"/>
-      <c r="P67" s="130"/>
-      <c r="Q67" s="134"/>
-      <c r="R67" s="134"/>
+      <c r="N67" s="126"/>
+      <c r="O67" s="116"/>
+      <c r="P67" s="116"/>
+      <c r="Q67" s="119"/>
+      <c r="R67" s="119"/>
       <c r="S67" s="12">
         <v>0</v>
       </c>
@@ -17268,11 +17417,11 @@
       </c>
     </row>
     <row r="68" spans="14:20">
-      <c r="N68" s="136"/>
-      <c r="O68" s="130"/>
-      <c r="P68" s="130"/>
-      <c r="Q68" s="134"/>
-      <c r="R68" s="134"/>
+      <c r="N68" s="126"/>
+      <c r="O68" s="116"/>
+      <c r="P68" s="116"/>
+      <c r="Q68" s="119"/>
+      <c r="R68" s="119"/>
       <c r="S68" s="12">
         <v>1</v>
       </c>
@@ -17281,11 +17430,11 @@
       </c>
     </row>
     <row r="69" spans="14:20">
-      <c r="N69" s="137"/>
-      <c r="O69" s="130"/>
-      <c r="P69" s="130"/>
-      <c r="Q69" s="134"/>
-      <c r="R69" s="134"/>
+      <c r="N69" s="127"/>
+      <c r="O69" s="116"/>
+      <c r="P69" s="116"/>
+      <c r="Q69" s="119"/>
+      <c r="R69" s="119"/>
       <c r="S69" s="12">
         <v>2</v>
       </c>
@@ -17295,26 +17444,12 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="N5:O16"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="R5:R8"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:P45"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="Q58:Q69"/>
-    <mergeCell ref="Q5:Q16"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M33:N33"/>
     <mergeCell ref="S66:T66"/>
     <mergeCell ref="R58:R61"/>
     <mergeCell ref="R62:R65"/>
@@ -17328,12 +17463,26 @@
     <mergeCell ref="S58:T58"/>
     <mergeCell ref="S62:T62"/>
     <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:P45"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="Q58:Q69"/>
+    <mergeCell ref="Q5:Q16"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="N5:O16"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="R5:R8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17342,7 +17491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5E69F3-0D99-4EC0-83D4-C1FB67E605D6}">
   <dimension ref="A1:H18"/>
   <sheetViews>
@@ -17356,26 +17505,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
-      <c r="A2" s="148"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
+      <c r="A2" s="133"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" t="s">
@@ -17432,74 +17581,74 @@
       <c r="G8" s="29"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="E12" s="149" t="s">
+      <c r="E12" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="150"/>
+      <c r="F12" s="135"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1"/>
     <row r="14" spans="1:8">
       <c r="B14" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="152" t="s">
+      <c r="C14" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="153"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="138"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="151" t="s">
+      <c r="B15" s="136" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="144" t="s">
+      <c r="C15" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="145"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="130"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="151"/>
-      <c r="C16" s="144" t="s">
+      <c r="B16" s="136"/>
+      <c r="C16" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="145"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="130"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="144" t="s">
+      <c r="C17" s="129" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="145"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="130"/>
     </row>
     <row r="18" spans="2:8" ht="17.25" thickBot="1">
       <c r="B18" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="146" t="s">
+      <c r="C18" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="147"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -17519,7 +17668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CD5E90-DCC5-4061-BA45-EB2F6D4AD232}">
   <dimension ref="A1:I59"/>
   <sheetViews>
@@ -17538,26 +17687,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="139" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="39" t="s">
@@ -17612,42 +17761,42 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="141" t="s">
+      <c r="B14" s="113" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="143"/>
-      <c r="D14" s="141" t="s">
+      <c r="C14" s="115"/>
+      <c r="D14" s="113" t="s">
         <v>178</v>
       </c>
-      <c r="E14" s="143"/>
+      <c r="E14" s="115"/>
       <c r="F14" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="C15" s="143"/>
-      <c r="D15" s="141" t="s">
+      <c r="C15" s="115"/>
+      <c r="D15" s="113" t="s">
         <v>181</v>
       </c>
-      <c r="E15" s="143"/>
+      <c r="E15" s="115"/>
       <c r="F15" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="130"/>
+      <c r="C16" s="116"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="116" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="130"/>
+      <c r="C17" s="116"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="39" t="s">
@@ -17885,7 +18034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1698EF56-0930-4F1F-AB07-261CE6117504}">
   <dimension ref="A1:AE109"/>
   <sheetViews>
@@ -17903,45 +18052,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="140" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="155"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="141" t="s">
         <v>220</v>
       </c>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="8" spans="1:26">
       <c r="Y8" s="48" t="s">
@@ -18121,20 +18270,20 @@
       <c r="A60" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="156" t="s">
+      <c r="B60" s="141" t="s">
         <v>260</v>
       </c>
-      <c r="C60" s="156"/>
-      <c r="D60" s="156"/>
-      <c r="E60" s="156"/>
-      <c r="F60" s="156"/>
+      <c r="C60" s="141"/>
+      <c r="D60" s="141"/>
+      <c r="E60" s="141"/>
+      <c r="F60" s="141"/>
     </row>
     <row r="61" spans="1:28">
-      <c r="B61" s="156"/>
-      <c r="C61" s="156"/>
-      <c r="D61" s="156"/>
-      <c r="E61" s="156"/>
-      <c r="F61" s="156"/>
+      <c r="B61" s="141"/>
+      <c r="C61" s="141"/>
+      <c r="D61" s="141"/>
+      <c r="E61" s="141"/>
+      <c r="F61" s="141"/>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="48" t="s">
@@ -18239,7 +18388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3569B90-646F-4149-9D96-93C3C5731CCD}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -18258,26 +18407,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="139" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="9" t="s">
@@ -18303,66 +18452,66 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="R5" s="159" t="s">
+      <c r="R5" s="142" t="s">
         <v>283</v>
       </c>
-      <c r="S5" s="159"/>
+      <c r="S5" s="142"/>
       <c r="T5" s="4" t="s">
         <v>284</v>
       </c>
       <c r="U5" s="12"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="R6" s="159" t="s">
+      <c r="R6" s="142" t="s">
         <v>285</v>
       </c>
-      <c r="S6" s="159"/>
+      <c r="S6" s="142"/>
       <c r="T6" s="4" t="s">
         <v>286</v>
       </c>
       <c r="U6" s="12"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="R7" s="159" t="s">
+      <c r="R7" s="142" t="s">
         <v>287</v>
       </c>
-      <c r="S7" s="159"/>
+      <c r="S7" s="142"/>
       <c r="T7" s="4" t="s">
         <v>288</v>
       </c>
       <c r="U7" s="12"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="R8" s="159" t="s">
+      <c r="R8" s="142" t="s">
         <v>289</v>
       </c>
-      <c r="S8" s="159"/>
-      <c r="T8" s="157" t="s">
+      <c r="S8" s="142"/>
+      <c r="T8" s="143" t="s">
         <v>290</v>
       </c>
-      <c r="U8" s="158"/>
+      <c r="U8" s="144"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="R9" s="159"/>
-      <c r="S9" s="159"/>
+      <c r="R9" s="142"/>
+      <c r="S9" s="142"/>
       <c r="T9" s="4" t="s">
         <v>291</v>
       </c>
       <c r="U9" s="12"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="R10" s="159"/>
-      <c r="S10" s="159"/>
+      <c r="R10" s="142"/>
+      <c r="S10" s="142"/>
       <c r="T10" s="4" t="s">
         <v>292</v>
       </c>
       <c r="U10" s="12"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="R11" s="159" t="s">
+      <c r="R11" s="142" t="s">
         <v>293</v>
       </c>
-      <c r="S11" s="159"/>
+      <c r="S11" s="142"/>
       <c r="T11" s="4" t="s">
         <v>294</v>
       </c>
@@ -18392,15 +18541,15 @@
       <c r="P25" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="Q25" s="141" t="s">
+      <c r="Q25" s="113" t="s">
         <v>300</v>
       </c>
-      <c r="R25" s="142"/>
-      <c r="S25" s="143"/>
-      <c r="T25" s="141" t="s">
+      <c r="R25" s="114"/>
+      <c r="S25" s="115"/>
+      <c r="T25" s="113" t="s">
         <v>301</v>
       </c>
-      <c r="U25" s="143"/>
+      <c r="U25" s="115"/>
     </row>
     <row r="26" spans="13:22">
       <c r="N26" s="56" t="s">
@@ -18412,11 +18561,11 @@
       <c r="P26" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="Q26" s="141" t="s">
+      <c r="Q26" s="113" t="s">
         <v>305</v>
       </c>
-      <c r="R26" s="142"/>
-      <c r="S26" s="143"/>
+      <c r="R26" s="114"/>
+      <c r="S26" s="115"/>
     </row>
     <row r="27" spans="13:22">
       <c r="N27" s="2"/>
@@ -18426,15 +18575,15 @@
       <c r="P27" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="Q27" s="141" t="s">
+      <c r="Q27" s="113" t="s">
         <v>308</v>
       </c>
-      <c r="R27" s="142"/>
-      <c r="S27" s="143"/>
-      <c r="U27" s="141" t="s">
+      <c r="R27" s="114"/>
+      <c r="S27" s="115"/>
+      <c r="U27" s="113" t="s">
         <v>309</v>
       </c>
-      <c r="V27" s="143"/>
+      <c r="V27" s="115"/>
     </row>
     <row r="29" spans="13:22">
       <c r="N29" s="4" t="s">
@@ -18487,11 +18636,11 @@
     </row>
     <row r="52" spans="1:20">
       <c r="Q52" s="12"/>
-      <c r="R52" s="130" t="s">
+      <c r="R52" s="116" t="s">
         <v>313</v>
       </c>
-      <c r="S52" s="130"/>
-      <c r="T52" s="130"/>
+      <c r="S52" s="116"/>
+      <c r="T52" s="116"/>
     </row>
     <row r="53" spans="1:20">
       <c r="Q53" s="4" t="s">
@@ -18622,6 +18771,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S10"/>
     <mergeCell ref="R52:T52"/>
     <mergeCell ref="R11:S11"/>
     <mergeCell ref="Q25:S25"/>
@@ -18629,12 +18784,6 @@
     <mergeCell ref="Q26:S26"/>
     <mergeCell ref="Q27:S27"/>
     <mergeCell ref="U27:V27"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S10"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
@@ -18646,7 +18795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEA3D14-281F-4606-AD74-8B8B84AACCCA}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -18660,26 +18809,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="139" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -18692,7 +18841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63EC470-630D-4770-9C7A-928AEBE52F0F}">
   <dimension ref="A1:V88"/>
   <sheetViews>
@@ -18706,26 +18855,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="139" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="9" t="s">
@@ -19292,11 +19441,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32E598E-95AD-41C5-987C-500F4B2B44ED}">
   <dimension ref="A2:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -19538,7 +19687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B818BF-0E32-41B4-BA89-72271DA1FB66}">
   <dimension ref="A1:N147"/>
   <sheetViews>
@@ -19565,19 +19714,19 @@
       <c r="B1" s="75" t="s">
         <v>567</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="158" t="s">
         <v>566</v>
       </c>
-      <c r="D1" s="105"/>
+      <c r="D1" s="158"/>
     </row>
     <row r="2" spans="1:8">
       <c r="B2" s="75" t="s">
         <v>296</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="158" t="s">
         <v>565</v>
       </c>
-      <c r="D2" s="105"/>
+      <c r="D2" s="158"/>
       <c r="E2" s="75" t="s">
         <v>564</v>
       </c>
@@ -19592,10 +19741,10 @@
       <c r="B3" s="75" t="s">
         <v>561</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="158" t="s">
         <v>560</v>
       </c>
-      <c r="D3" s="105"/>
+      <c r="D3" s="158"/>
       <c r="F3" s="75"/>
       <c r="G3" s="75" t="s">
         <v>559</v>
@@ -19605,10 +19754,10 @@
       <c r="B4" s="75" t="s">
         <v>553</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="158" t="s">
         <v>558</v>
       </c>
-      <c r="D4" s="105"/>
+      <c r="D4" s="158"/>
       <c r="F4" s="75"/>
       <c r="G4" s="75"/>
     </row>
@@ -19628,10 +19777,10 @@
         <v>554</v>
       </c>
       <c r="E6" s="99"/>
-      <c r="F6" s="106" t="s">
+      <c r="F6" s="150" t="s">
         <v>553</v>
       </c>
-      <c r="G6" s="107"/>
+      <c r="G6" s="151"/>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" s="92">
@@ -19683,11 +19832,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75">
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="157" t="s">
         <v>546</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="73" t="s">
@@ -19699,10 +19848,10 @@
       <c r="D14" s="73" t="s">
         <v>544</v>
       </c>
-      <c r="E14" s="110" t="s">
+      <c r="E14" s="154" t="s">
         <v>543</v>
       </c>
-      <c r="F14" s="111"/>
+      <c r="F14" s="155"/>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="73" t="s">
@@ -19736,10 +19885,10 @@
       <c r="D17" s="73" t="s">
         <v>449</v>
       </c>
-      <c r="E17" s="110" t="s">
+      <c r="E17" s="154" t="s">
         <v>537</v>
       </c>
-      <c r="F17" s="111"/>
+      <c r="F17" s="155"/>
     </row>
     <row r="18" spans="1:7">
       <c r="B18" s="75"/>
@@ -19765,25 +19914,25 @@
       <c r="D21" s="76" t="s">
         <v>533</v>
       </c>
-      <c r="E21" s="112" t="s">
+      <c r="E21" s="146" t="s">
         <v>532</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="145" t="s">
         <v>524</v>
       </c>
-      <c r="C22" s="115"/>
+      <c r="C22" s="145"/>
       <c r="D22" s="94" t="s">
         <v>423</v>
       </c>
-      <c r="E22" s="115" t="s">
+      <c r="E22" s="145" t="s">
         <v>531</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="146"/>
     </row>
     <row r="23" spans="1:7">
       <c r="B23" s="76"/>
@@ -19796,11 +19945,11 @@
       <c r="G23" s="76"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="E24" s="116" t="s">
+      <c r="E24" s="147" t="s">
         <v>529</v>
       </c>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="148"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="72" t="s">
@@ -19832,29 +19981,29 @@
       <c r="G27" s="76"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="145" t="s">
         <v>524</v>
       </c>
-      <c r="C28" s="115"/>
+      <c r="C28" s="145"/>
       <c r="D28" s="94" t="s">
         <v>423</v>
       </c>
       <c r="E28" s="73" t="s">
         <v>523</v>
       </c>
-      <c r="F28" s="115" t="s">
+      <c r="F28" s="145" t="s">
         <v>522</v>
       </c>
-      <c r="G28" s="115"/>
+      <c r="G28" s="145"/>
     </row>
     <row r="29" spans="1:7">
       <c r="E29" s="97" t="s">
         <v>521</v>
       </c>
-      <c r="F29" s="113" t="s">
+      <c r="F29" s="156" t="s">
         <v>520</v>
       </c>
-      <c r="G29" s="113"/>
+      <c r="G29" s="156"/>
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="71" t="s">
@@ -20054,10 +20203,10 @@
       <c r="I74" s="73" t="s">
         <v>490</v>
       </c>
-      <c r="J74" s="108" t="s">
+      <c r="J74" s="152" t="s">
         <v>497</v>
       </c>
-      <c r="K74" s="108"/>
+      <c r="K74" s="152"/>
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="76"/>
@@ -20078,10 +20227,10 @@
         <v>486</v>
       </c>
       <c r="I75" s="76"/>
-      <c r="J75" s="108" t="s">
+      <c r="J75" s="152" t="s">
         <v>496</v>
       </c>
-      <c r="K75" s="108"/>
+      <c r="K75" s="152"/>
     </row>
     <row r="76" spans="2:11">
       <c r="J76" s="95"/>
@@ -20141,10 +20290,10 @@
       <c r="I82" s="73" t="s">
         <v>490</v>
       </c>
-      <c r="J82" s="108" t="s">
+      <c r="J82" s="152" t="s">
         <v>489</v>
       </c>
-      <c r="K82" s="109"/>
+      <c r="K82" s="153"/>
       <c r="L82" s="92">
         <v>1</v>
       </c>
@@ -20174,8 +20323,8 @@
         <v>486</v>
       </c>
       <c r="I83" s="76"/>
-      <c r="J83" s="112"/>
-      <c r="K83" s="114"/>
+      <c r="J83" s="146"/>
+      <c r="K83" s="149"/>
       <c r="L83" s="92">
         <v>2</v>
       </c>
@@ -20573,10 +20722,10 @@
       <c r="C133" s="73" t="s">
         <v>435</v>
       </c>
-      <c r="D133" s="115" t="s">
+      <c r="D133" s="145" t="s">
         <v>434</v>
       </c>
-      <c r="E133" s="115"/>
+      <c r="E133" s="145"/>
       <c r="F133" s="73" t="s">
         <v>433</v>
       </c>
@@ -20586,25 +20735,25 @@
       <c r="H133" s="73" t="s">
         <v>431</v>
       </c>
-      <c r="I133" s="115" t="s">
+      <c r="I133" s="145" t="s">
         <v>430</v>
       </c>
-      <c r="J133" s="115"/>
+      <c r="J133" s="145"/>
     </row>
     <row r="134" spans="1:10">
       <c r="B134" s="76"/>
       <c r="C134" s="76"/>
-      <c r="D134" s="115" t="s">
+      <c r="D134" s="145" t="s">
         <v>429</v>
       </c>
-      <c r="E134" s="112"/>
+      <c r="E134" s="146"/>
       <c r="F134" s="76"/>
       <c r="G134" s="76"/>
       <c r="H134" s="76"/>
-      <c r="I134" s="115" t="s">
+      <c r="I134" s="145" t="s">
         <v>428</v>
       </c>
-      <c r="J134" s="115"/>
+      <c r="J134" s="145"/>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="72" t="s">
@@ -20649,16 +20798,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="J82:K82"/>
     <mergeCell ref="E14:F14"/>
@@ -20667,340 +20811,21 @@
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="J74:K74"/>
     <mergeCell ref="J75:K75"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F28:G28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD992B9-E069-4FDE-8528-EF44F953BBB5}">
-  <dimension ref="A2:L109"/>
-  <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="3.5" style="62" customWidth="1"/>
-    <col min="2" max="16384" width="8.75" style="62"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" ht="16.5">
-      <c r="A2" s="62" t="s">
-        <v>586</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="16.5">
-      <c r="F3" s="102" t="s">
-        <v>628</v>
-      </c>
-      <c r="G3" s="118" t="s">
-        <v>627</v>
-      </c>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118" t="s">
-        <v>626</v>
-      </c>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="102" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="16.5">
-      <c r="F4" s="102" t="s">
-        <v>624</v>
-      </c>
-      <c r="G4" s="103" t="s">
-        <v>623</v>
-      </c>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="102" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="16.5">
-      <c r="F5" s="102" t="s">
-        <v>621</v>
-      </c>
-      <c r="G5" s="118" t="s">
-        <v>620</v>
-      </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="102" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="16.5">
-      <c r="G13" s="63" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="16.5">
-      <c r="G14" s="63" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="16.5">
-      <c r="G16" s="63"/>
-    </row>
-    <row r="47" spans="2:2" ht="16.5">
-      <c r="B47" s="63" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="16.5">
-      <c r="A61" s="62" t="s">
-        <v>586</v>
-      </c>
-      <c r="B61" s="63" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="16.5">
-      <c r="A67" s="62" t="s">
-        <v>586</v>
-      </c>
-      <c r="B67" s="63" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="16.5">
-      <c r="B72" s="63" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="16.5">
-      <c r="B73" s="63" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="16.5">
-      <c r="A75" s="62" t="s">
-        <v>586</v>
-      </c>
-      <c r="B75" s="63" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="16.5">
-      <c r="B76" s="63" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="16.5">
-      <c r="B77" s="63" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="16.5">
-      <c r="A79" s="62" t="s">
-        <v>586</v>
-      </c>
-      <c r="B79" s="63" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="16.5">
-      <c r="B80" s="63" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="16.5">
-      <c r="B81" s="63" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="B82" s="62" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="16.5">
-      <c r="B85" s="62" t="s">
-        <v>604</v>
-      </c>
-      <c r="I85" s="63" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="16.5">
-      <c r="B86" s="62" t="s">
-        <v>602</v>
-      </c>
-      <c r="I86" s="63" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="16.5">
-      <c r="B87" s="62" t="s">
-        <v>600</v>
-      </c>
-      <c r="I87" s="63" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="16.5">
-      <c r="B88" s="62" t="s">
-        <v>598</v>
-      </c>
-      <c r="I88" s="63" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="16.5">
-      <c r="B89" s="62" t="s">
-        <v>596</v>
-      </c>
-      <c r="I89" s="63" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="16.5">
-      <c r="B90" s="62" t="s">
-        <v>594</v>
-      </c>
-      <c r="I90" s="63" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="16.5">
-      <c r="B91" s="62" t="s">
-        <v>592</v>
-      </c>
-      <c r="I91" s="63" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="16.5">
-      <c r="B92" s="62" t="s">
-        <v>590</v>
-      </c>
-      <c r="I92" s="63" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="16.5">
-      <c r="B93" s="62" t="s">
-        <v>588</v>
-      </c>
-      <c r="I93" s="63" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="16.5">
-      <c r="A95" s="62" t="s">
-        <v>586</v>
-      </c>
-      <c r="B95" s="63" t="s">
-        <v>585</v>
-      </c>
-      <c r="D95" s="70" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="16.5">
-      <c r="B96" s="63" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" ht="16.5">
-      <c r="B97" s="63" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" ht="16.5">
-      <c r="B99" s="63" t="s">
-        <v>581</v>
-      </c>
-      <c r="C99" s="63" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" ht="16.5">
-      <c r="B100" s="63" t="s">
-        <v>579</v>
-      </c>
-      <c r="C100" s="63" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" ht="16.5">
-      <c r="B101" s="63" t="s">
-        <v>578</v>
-      </c>
-      <c r="C101" s="63" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" ht="16.5">
-      <c r="B103" s="63" t="s">
-        <v>576</v>
-      </c>
-      <c r="C103" s="63" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" ht="16.5">
-      <c r="B104" s="63" t="s">
-        <v>574</v>
-      </c>
-      <c r="C104" s="63" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" ht="16.5">
-      <c r="B105" s="63" t="s">
-        <v>572</v>
-      </c>
-      <c r="C105" s="63" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" ht="16.5">
-      <c r="B107" s="63" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" ht="16.5">
-      <c r="B108" s="63" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" ht="16.5">
-      <c r="B109" s="64" t="s">
-        <v>568</v>
-      </c>
-      <c r="C109" s="101"/>
-      <c r="D109" s="101"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G5:K5"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21018,30 +20843,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
     </row>
     <row r="4" spans="1:12">
       <c r="L4" t="s">
@@ -21080,6 +20905,330 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD992B9-E069-4FDE-8528-EF44F953BBB5}">
+  <dimension ref="A2:L109"/>
+  <sheetViews>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="62" customWidth="1"/>
+    <col min="2" max="16384" width="8.75" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="16.5">
+      <c r="A2" s="62" t="s">
+        <v>586</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5">
+      <c r="F3" s="102" t="s">
+        <v>628</v>
+      </c>
+      <c r="G3" s="159" t="s">
+        <v>627</v>
+      </c>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159" t="s">
+        <v>626</v>
+      </c>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="102" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5">
+      <c r="F4" s="102" t="s">
+        <v>624</v>
+      </c>
+      <c r="G4" s="103" t="s">
+        <v>623</v>
+      </c>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="102" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5">
+      <c r="F5" s="102" t="s">
+        <v>621</v>
+      </c>
+      <c r="G5" s="159" t="s">
+        <v>620</v>
+      </c>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="102" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5">
+      <c r="G13" s="63" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5">
+      <c r="G14" s="63" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5">
+      <c r="G16" s="63"/>
+    </row>
+    <row r="47" spans="2:2" ht="16.5">
+      <c r="B47" s="63" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="16.5">
+      <c r="A61" s="62" t="s">
+        <v>586</v>
+      </c>
+      <c r="B61" s="63" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="16.5">
+      <c r="A67" s="62" t="s">
+        <v>586</v>
+      </c>
+      <c r="B67" s="63" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="16.5">
+      <c r="B72" s="63" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="16.5">
+      <c r="B73" s="63" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="16.5">
+      <c r="A75" s="62" t="s">
+        <v>586</v>
+      </c>
+      <c r="B75" s="63" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="16.5">
+      <c r="B76" s="63" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="16.5">
+      <c r="B77" s="63" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="16.5">
+      <c r="A79" s="62" t="s">
+        <v>586</v>
+      </c>
+      <c r="B79" s="63" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="16.5">
+      <c r="B80" s="63" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="16.5">
+      <c r="B81" s="63" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="B82" s="62" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="16.5">
+      <c r="B85" s="62" t="s">
+        <v>604</v>
+      </c>
+      <c r="I85" s="63" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="16.5">
+      <c r="B86" s="62" t="s">
+        <v>602</v>
+      </c>
+      <c r="I86" s="63" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="16.5">
+      <c r="B87" s="62" t="s">
+        <v>600</v>
+      </c>
+      <c r="I87" s="63" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="16.5">
+      <c r="B88" s="62" t="s">
+        <v>598</v>
+      </c>
+      <c r="I88" s="63" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="16.5">
+      <c r="B89" s="62" t="s">
+        <v>596</v>
+      </c>
+      <c r="I89" s="63" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="16.5">
+      <c r="B90" s="62" t="s">
+        <v>594</v>
+      </c>
+      <c r="I90" s="63" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="16.5">
+      <c r="B91" s="62" t="s">
+        <v>592</v>
+      </c>
+      <c r="I91" s="63" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="16.5">
+      <c r="B92" s="62" t="s">
+        <v>590</v>
+      </c>
+      <c r="I92" s="63" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="16.5">
+      <c r="B93" s="62" t="s">
+        <v>588</v>
+      </c>
+      <c r="I93" s="63" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="16.5">
+      <c r="A95" s="62" t="s">
+        <v>586</v>
+      </c>
+      <c r="B95" s="63" t="s">
+        <v>585</v>
+      </c>
+      <c r="D95" s="70" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="16.5">
+      <c r="B96" s="63" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" ht="16.5">
+      <c r="B97" s="63" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" ht="16.5">
+      <c r="B99" s="63" t="s">
+        <v>581</v>
+      </c>
+      <c r="C99" s="63" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" ht="16.5">
+      <c r="B100" s="63" t="s">
+        <v>579</v>
+      </c>
+      <c r="C100" s="63" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" ht="16.5">
+      <c r="B101" s="63" t="s">
+        <v>578</v>
+      </c>
+      <c r="C101" s="63" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" ht="16.5">
+      <c r="B103" s="63" t="s">
+        <v>576</v>
+      </c>
+      <c r="C103" s="63" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" ht="16.5">
+      <c r="B104" s="63" t="s">
+        <v>574</v>
+      </c>
+      <c r="C104" s="63" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" ht="16.5">
+      <c r="B105" s="63" t="s">
+        <v>572</v>
+      </c>
+      <c r="C105" s="63" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" ht="16.5">
+      <c r="B107" s="63" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" ht="16.5">
+      <c r="B108" s="63" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" ht="16.5">
+      <c r="B109" s="64" t="s">
+        <v>568</v>
+      </c>
+      <c r="C109" s="101"/>
+      <c r="D109" s="101"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G5:K5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA15415-D119-40C7-8D81-55CEBDA9B43A}">
   <dimension ref="A1:K31"/>
   <sheetViews>
@@ -21275,7 +21424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0911234-F774-4B20-AEFE-FC5F5CA6457D}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
@@ -21285,30 +21434,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -21322,43 +21471,43 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F965E2B9-9229-4395-8E43-E9034FA777DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1452A267-22D1-4991-9B91-5EEF11CFD251}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="119" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
+      <c r="A1" s="104" t="s">
+        <v>668</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -21371,6 +21520,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F965E2B9-9229-4395-8E43-E9034FA777DE}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="104" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A9424E-3AE4-4F8C-854D-53A0CDDC28A9}">
   <dimension ref="A1:M28"/>
   <sheetViews>
@@ -21385,22 +21583,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="121"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -21499,7 +21697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4580C2-8935-43BF-8D33-AEEEF4339B5A}">
   <dimension ref="A1:J49"/>
   <sheetViews>
@@ -21513,36 +21711,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="122"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
@@ -21576,18 +21774,18 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
@@ -21616,18 +21814,18 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="123" t="s">
+      <c r="A39" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="124"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="124"/>
-      <c r="G39" s="124"/>
-      <c r="H39" s="124"/>
-      <c r="I39" s="124"/>
-      <c r="J39" s="124"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="109"/>
+      <c r="J39" s="109"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
@@ -21668,7 +21866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6BD228-D45A-4858-BD59-C6918A540E42}">
   <dimension ref="A1:F18"/>
   <sheetViews>
@@ -21682,22 +21880,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="121"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -21789,7 +21987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC6B283-104E-4CAE-9D0C-B2AFB50514E1}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F33"/>
@@ -21807,27 +22005,27 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
@@ -22029,53 +22227,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCFAD99-9EC8-4BF2-9A98-E16388EAF18B}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="119" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J2"/>
-  </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>